--- a/public/assets/templates/PLANTILLA_GENERAL.xlsx
+++ b/public/assets/templates/PLANTILLA_GENERAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Proyectos\Probusiness\intranet_back\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED1FE22-2FD8-45F2-A567-3EBA50D35989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3EF0F-370A-41EB-B11E-ED1D100E3023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6135" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="2496" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="12" r:id="rId1"/>
@@ -243,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -331,13 +331,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -425,6 +436,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,31 +784,31 @@
   <dimension ref="A1:U178"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="16" width="24.140625" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="29.42578125" style="21" customWidth="1"/>
+    <col min="15" max="16" width="24.109375" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -845,20 +859,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="22" t="e">
@@ -868,11 +882,11 @@
       <c r="Q2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -887,7 +901,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -902,7 +916,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -915,7 +929,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -937,7 +951,7 @@
       <c r="Q7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -961,7 +975,7 @@
       <c r="Q8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -983,7 +997,7 @@
       <c r="Q9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1003,7 +1017,7 @@
       <c r="Q10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -1027,7 +1041,7 @@
       <c r="Q11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
         <v>10</v>
@@ -1049,7 +1063,7 @@
       <c r="Q12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
@@ -1071,7 +1085,7 @@
       <c r="Q13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
         <v>5</v>
@@ -1093,7 +1107,7 @@
       <c r="Q14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -1115,7 +1129,7 @@
       <c r="Q15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1135,7 +1149,7 @@
       <c r="Q16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1173,7 @@
       <c r="Q17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
         <v>12</v>
@@ -1181,7 +1195,7 @@
       <c r="Q18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1203,646 +1217,646 @@
       <c r="Q19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q24" s="6"/>
       <c r="U24" s="6"/>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q25" s="6"/>
       <c r="U25" s="6"/>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="6"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q30" s="6"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q32" s="6"/>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="6"/>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q34" s="6"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q35" s="6"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q36" s="6"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q38" s="6"/>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q39" s="6"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q40" s="6"/>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q41" s="6"/>
       <c r="U41" s="6"/>
     </row>
-    <row r="42" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q43" s="6"/>
       <c r="U43" s="6"/>
     </row>
-    <row r="44" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q44" s="6"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q45" s="6"/>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q46" s="6"/>
       <c r="U46" s="6"/>
     </row>
-    <row r="47" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q47" s="6"/>
       <c r="U47" s="6"/>
     </row>
-    <row r="48" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q48" s="6"/>
       <c r="U48" s="6"/>
     </row>
-    <row r="49" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q49" s="6"/>
       <c r="U49" s="6"/>
     </row>
-    <row r="50" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="6"/>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q51" s="6"/>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q52" s="6"/>
       <c r="U52" s="6"/>
     </row>
-    <row r="53" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q53" s="6"/>
       <c r="U53" s="6"/>
     </row>
-    <row r="54" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q54" s="6"/>
       <c r="U54" s="6"/>
     </row>
-    <row r="55" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q55" s="6"/>
       <c r="U55" s="6"/>
     </row>
-    <row r="56" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q57" s="6"/>
       <c r="U57" s="6"/>
     </row>
-    <row r="58" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q58" s="6"/>
       <c r="U58" s="6"/>
     </row>
-    <row r="59" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q59" s="6"/>
       <c r="U59" s="6"/>
     </row>
-    <row r="60" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q60" s="6"/>
       <c r="U60" s="6"/>
     </row>
-    <row r="61" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q61" s="6"/>
       <c r="U61" s="6"/>
     </row>
-    <row r="62" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q62" s="6"/>
       <c r="U62" s="6"/>
     </row>
-    <row r="63" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q63" s="6"/>
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q64" s="6"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q65" s="6"/>
       <c r="U65" s="6"/>
     </row>
-    <row r="66" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q66" s="6"/>
       <c r="U66" s="6"/>
     </row>
-    <row r="67" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q67" s="6"/>
       <c r="U67" s="6"/>
     </row>
-    <row r="68" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q68" s="6"/>
       <c r="U68" s="6"/>
     </row>
-    <row r="69" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q69" s="6"/>
       <c r="U69" s="6"/>
     </row>
-    <row r="70" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q70" s="6"/>
       <c r="U70" s="6"/>
     </row>
-    <row r="71" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q71" s="6"/>
       <c r="U71" s="6"/>
     </row>
-    <row r="72" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q72" s="6"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="73" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q73" s="6"/>
       <c r="U73" s="6"/>
     </row>
-    <row r="74" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q74" s="6"/>
       <c r="U74" s="6"/>
     </row>
-    <row r="75" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q75" s="6"/>
       <c r="U75" s="6"/>
     </row>
-    <row r="76" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q76" s="6"/>
       <c r="U76" s="6"/>
     </row>
-    <row r="77" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q77" s="6"/>
       <c r="U77" s="6"/>
     </row>
-    <row r="78" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q78" s="6"/>
       <c r="U78" s="6"/>
     </row>
-    <row r="79" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="6"/>
       <c r="U79" s="6"/>
     </row>
-    <row r="80" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q80" s="6"/>
       <c r="U80" s="6"/>
     </row>
-    <row r="81" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q81" s="6"/>
       <c r="U81" s="6"/>
     </row>
-    <row r="82" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q84" s="6"/>
       <c r="U84" s="6"/>
     </row>
-    <row r="85" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q85" s="6"/>
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q86" s="6"/>
       <c r="U86" s="6"/>
     </row>
-    <row r="87" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q87" s="6"/>
       <c r="U87" s="6"/>
     </row>
-    <row r="88" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q88" s="6"/>
       <c r="U88" s="6"/>
     </row>
-    <row r="89" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q89" s="6"/>
       <c r="U89" s="6"/>
     </row>
-    <row r="90" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q90" s="6"/>
       <c r="U90" s="6"/>
     </row>
-    <row r="91" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q91" s="6"/>
       <c r="U91" s="6"/>
     </row>
-    <row r="92" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q93" s="6"/>
       <c r="U93" s="6"/>
     </row>
-    <row r="94" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q94" s="6"/>
       <c r="U94" s="6"/>
     </row>
-    <row r="95" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q95" s="6"/>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q96" s="6"/>
       <c r="U96" s="6"/>
     </row>
-    <row r="97" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q97" s="6"/>
       <c r="U97" s="6"/>
     </row>
-    <row r="98" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q98" s="6"/>
       <c r="U98" s="6"/>
     </row>
-    <row r="99" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q99" s="6"/>
       <c r="U99" s="6"/>
     </row>
-    <row r="100" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q100" s="6"/>
       <c r="U100" s="6"/>
     </row>
-    <row r="101" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q101" s="6"/>
       <c r="U101" s="6"/>
     </row>
-    <row r="102" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q102" s="6"/>
       <c r="U102" s="6"/>
     </row>
-    <row r="103" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q103" s="6"/>
       <c r="U103" s="6"/>
     </row>
-    <row r="104" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q104" s="6"/>
       <c r="U104" s="6"/>
     </row>
-    <row r="105" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q105" s="6"/>
       <c r="U105" s="6"/>
     </row>
-    <row r="106" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q106" s="6"/>
       <c r="U106" s="6"/>
     </row>
-    <row r="107" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q107" s="6"/>
       <c r="U107" s="6"/>
     </row>
-    <row r="108" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q108" s="6"/>
       <c r="U108" s="6"/>
     </row>
-    <row r="109" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q109" s="6"/>
       <c r="U109" s="6"/>
     </row>
-    <row r="110" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q110" s="6"/>
       <c r="U110" s="6"/>
     </row>
-    <row r="111" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q111" s="6"/>
       <c r="U111" s="6"/>
     </row>
-    <row r="112" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q112" s="6"/>
       <c r="U112" s="6"/>
     </row>
-    <row r="113" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q113" s="6"/>
       <c r="U113" s="6"/>
     </row>
-    <row r="114" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q114" s="6"/>
       <c r="U114" s="6"/>
     </row>
-    <row r="115" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q115" s="6"/>
       <c r="U115" s="6"/>
     </row>
-    <row r="116" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q116" s="6"/>
       <c r="U116" s="6"/>
     </row>
-    <row r="117" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q117" s="6"/>
       <c r="U117" s="6"/>
     </row>
-    <row r="118" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q118" s="6"/>
       <c r="U118" s="6"/>
     </row>
-    <row r="119" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q119" s="6"/>
       <c r="U119" s="6"/>
     </row>
-    <row r="120" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q120" s="6"/>
       <c r="U120" s="6"/>
     </row>
-    <row r="121" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q121" s="6"/>
       <c r="U121" s="6"/>
     </row>
-    <row r="122" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q122" s="6"/>
       <c r="U122" s="6"/>
     </row>
-    <row r="123" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q123" s="6"/>
       <c r="U123" s="6"/>
     </row>
-    <row r="124" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q124" s="6"/>
       <c r="U124" s="6"/>
     </row>
-    <row r="125" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q125" s="6"/>
       <c r="U125" s="6"/>
     </row>
-    <row r="126" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q126" s="6"/>
       <c r="U126" s="6"/>
     </row>
-    <row r="127" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q127" s="6"/>
       <c r="U127" s="6"/>
     </row>
-    <row r="128" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q128" s="6"/>
       <c r="U128" s="6"/>
     </row>
-    <row r="129" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q129" s="6"/>
       <c r="U129" s="6"/>
     </row>
-    <row r="130" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q130" s="6"/>
       <c r="U130" s="6"/>
     </row>
-    <row r="131" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q131" s="6"/>
       <c r="U131" s="6"/>
     </row>
-    <row r="132" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q132" s="6"/>
       <c r="U132" s="6"/>
     </row>
-    <row r="133" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q133" s="6"/>
       <c r="U133" s="6"/>
     </row>
-    <row r="134" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q134" s="6"/>
       <c r="U134" s="6"/>
     </row>
-    <row r="135" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q135" s="6"/>
       <c r="U135" s="6"/>
     </row>
-    <row r="136" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q136" s="6"/>
       <c r="U136" s="6"/>
     </row>
-    <row r="137" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q137" s="6"/>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q138" s="6"/>
       <c r="U138" s="6"/>
     </row>
-    <row r="139" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q139" s="6"/>
       <c r="U139" s="6"/>
     </row>
-    <row r="140" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q140" s="6"/>
       <c r="U140" s="6"/>
     </row>
-    <row r="141" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q141" s="6"/>
       <c r="U141" s="6"/>
     </row>
-    <row r="142" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q142" s="6"/>
       <c r="U142" s="6"/>
     </row>
-    <row r="143" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q143" s="6"/>
       <c r="U143" s="6"/>
     </row>
-    <row r="144" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q144" s="6"/>
       <c r="U144" s="6"/>
     </row>
-    <row r="145" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q145" s="6"/>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q146" s="6"/>
       <c r="U146" s="6"/>
     </row>
-    <row r="147" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q147" s="6"/>
       <c r="U147" s="6"/>
     </row>
-    <row r="148" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q148" s="6"/>
       <c r="U148" s="6"/>
     </row>
-    <row r="149" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q149" s="6"/>
       <c r="U149" s="6"/>
     </row>
-    <row r="150" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q150" s="6"/>
       <c r="U150" s="6"/>
     </row>
-    <row r="151" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q151" s="6"/>
       <c r="U151" s="6"/>
     </row>
-    <row r="152" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q152" s="6"/>
       <c r="U152" s="6"/>
     </row>
-    <row r="153" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q153" s="6"/>
       <c r="U153" s="6"/>
     </row>
-    <row r="154" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q154" s="6"/>
       <c r="U154" s="6"/>
     </row>
-    <row r="155" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q155" s="6"/>
       <c r="U155" s="6"/>
     </row>
-    <row r="156" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q156" s="6"/>
       <c r="U156" s="6"/>
     </row>
-    <row r="157" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q157" s="6"/>
       <c r="U157" s="6"/>
     </row>
-    <row r="158" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q158" s="6"/>
       <c r="U158" s="6"/>
     </row>
-    <row r="159" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q159" s="6"/>
       <c r="U159" s="6"/>
     </row>
-    <row r="160" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q160" s="6"/>
       <c r="U160" s="6"/>
     </row>
-    <row r="161" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q161" s="6"/>
       <c r="U161" s="6"/>
     </row>
-    <row r="162" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q162" s="6"/>
       <c r="U162" s="6"/>
     </row>
-    <row r="163" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q163" s="6"/>
       <c r="U163" s="6"/>
     </row>
-    <row r="164" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q164" s="6"/>
       <c r="U164" s="6"/>
     </row>
-    <row r="165" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q165" s="6"/>
       <c r="U165" s="6"/>
     </row>
-    <row r="166" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q166" s="6"/>
       <c r="U166" s="6"/>
     </row>
-    <row r="167" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q167" s="6"/>
       <c r="U167" s="6"/>
     </row>
-    <row r="168" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q168" s="6"/>
       <c r="U168" s="6"/>
     </row>
-    <row r="169" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q169" s="6"/>
       <c r="U169" s="6"/>
     </row>
-    <row r="170" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q170" s="6"/>
       <c r="U170" s="6"/>
     </row>
-    <row r="171" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q171" s="6"/>
       <c r="U171" s="6"/>
     </row>
-    <row r="172" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q172" s="6"/>
       <c r="U172" s="6"/>
     </row>
-    <row r="173" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q173" s="6"/>
       <c r="U173" s="6"/>
     </row>
-    <row r="174" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q174" s="6"/>
       <c r="U174" s="6"/>
     </row>
-    <row r="175" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q175" s="6"/>
       <c r="U175" s="6"/>
     </row>
-    <row r="176" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q176" s="6"/>
       <c r="U176" s="6"/>
     </row>
-    <row r="177" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q177" s="6"/>
       <c r="U177" s="6"/>
     </row>
-    <row r="178" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="17:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Q178" s="6"/>
       <c r="U178" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
